--- a/Batches/Batch_2.xlsx
+++ b/Batches/Batch_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://www.upkeepbeauty.com</t>
+          <t>http://www.cantupestcontrol.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://www.uprisemgmt.com</t>
+          <t>http://www.cocoatown.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,34 +517,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.vacation.inc</t>
+          <t>http://www.coniferre.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://www.vanillafromtahiti.com</t>
+          <t>http://www.connexfm.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.visitandcare.com</t>
+          <t>http://www.coolerx.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,6 +590,141 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>http://www.db2re.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>http://www.getduckbill.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>http://www.ecomarketingsolutions.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>http://www.epoxydesign.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>http://www.friscofamilyservices.org</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
